--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1701623.080666939</v>
+        <v>-1704240.917893566</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14944359.36198346</v>
+        <v>14944359.36198345</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>254.6249665253393</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.70287201662217</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>97.57207242965438</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>78.19835858015729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.61811556809697</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>312.9677062101712</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>297.9986308222597</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>35.04027315184531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>95.53495267724506</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>205.9213958446534</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>66.8147977639037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1342,16 +1342,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>50.12536097669192</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>92.83802857056141</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>98.00068573248046</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>123.9815576456784</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1797.459220126683</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.262284242502</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>935.9419789290984</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190805</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190805</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1716.569780902783</v>
+        <v>1548.937911402421</v>
       </c>
       <c r="C4" t="n">
-        <v>1547.633597974876</v>
+        <v>1380.001728474514</v>
       </c>
       <c r="D4" t="n">
-        <v>1547.633597974876</v>
+        <v>1229.885089062178</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392483</v>
+        <v>1229.885089062178</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
         <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
         <v>1002.60916787878</v>
@@ -4492,7 +4492,7 @@
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
@@ -4504,34 +4504,34 @@
         <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2483.351087410097</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2483.351087410097</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2260.372606604833</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1971.25426910867</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1716.569780902783</v>
+        <v>2468.785676311169</v>
       </c>
       <c r="W4" t="n">
-        <v>1716.569780902783</v>
+        <v>2179.368506274208</v>
       </c>
       <c r="X4" t="n">
-        <v>1716.569780902783</v>
+        <v>1951.378955376191</v>
       </c>
       <c r="Y4" t="n">
-        <v>1716.569780902783</v>
+        <v>1730.586376232661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473096</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490654</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.030850478768</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1091.613680441807</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1758.295537883725</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C8" t="n">
-        <v>1389.333020943314</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D8" t="n">
-        <v>1031.067322336563</v>
+        <v>731.5828752918126</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>731.5828752918126</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923659</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y8" t="n">
-        <v>2144.895377947847</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.724875630924</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C10" t="n">
-        <v>742.724875630924</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143256</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1684.976986161085</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1395.874119286729</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>1141.189631080842</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>1141.189631080842</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5174547744541</v>
+        <v>913.2000801828243</v>
       </c>
       <c r="Y10" t="n">
-        <v>742.724875630924</v>
+        <v>692.4075010392942</v>
       </c>
     </row>
     <row r="11">
@@ -5033,49 +5033,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>139.2347658407936</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2286.141593397752</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2066.540128420693</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1777.464901764891</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1522.780413559004</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1233.363243522043</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1005.373692624026</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6242,10 +6242,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576786</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>219.0505596597682</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,16 +6479,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,34 +7111,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>110.6479252456683</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>284.3582976426074</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>58.48426807549734</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>159.519527755731</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52737017530985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>88.18825743108319</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>119.4047645948078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>41.54258064659049</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045141</v>
+        <v>99467.00901045145</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.260996426339261e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.81069968619</v>
+        <v>68537.81069968622</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363183</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47790.09282518988</v>
+        <v>47790.09282518989</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768919</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768939</v>
       </c>
-      <c r="I4" t="n">
-        <v>9947.144321768868</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768897</v>
-      </c>
       <c r="K4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.0035848624</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486233</v>
+        <v>17938.0035848624</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.0035848624</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486237</v>
@@ -26457,7 +26457,7 @@
         <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486237</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1156012.639830503</v>
+        <v>-1156407.460771656</v>
       </c>
       <c r="C6" t="n">
-        <v>-277350.595786977</v>
+        <v>-277350.5957869768</v>
       </c>
       <c r="D6" t="n">
         <v>-73911.85417487097</v>
       </c>
       <c r="E6" t="n">
-        <v>-315410.1459995305</v>
+        <v>-315444.883924966</v>
       </c>
       <c r="F6" t="n">
-        <v>10002.315807825</v>
+        <v>9967.577882389218</v>
       </c>
       <c r="G6" t="n">
-        <v>10002.31580782487</v>
+        <v>9967.577882389174</v>
       </c>
       <c r="H6" t="n">
-        <v>10002.3158078249</v>
+        <v>9967.57788238916</v>
       </c>
       <c r="I6" t="n">
-        <v>10002.31580782484</v>
+        <v>9967.577882389189</v>
       </c>
       <c r="J6" t="n">
-        <v>-157602.8620021576</v>
+        <v>-157637.5999275933</v>
       </c>
       <c r="K6" t="n">
-        <v>-66483.66465882157</v>
+        <v>-66483.6646588216</v>
       </c>
       <c r="L6" t="n">
-        <v>2054.146040864667</v>
+        <v>2054.146040864696</v>
       </c>
       <c r="M6" t="n">
-        <v>-83000.88189464704</v>
+        <v>-83000.88189464711</v>
       </c>
       <c r="N6" t="n">
-        <v>2054.146040864885</v>
+        <v>2054.146040864754</v>
       </c>
       <c r="O6" t="n">
-        <v>2054.146040864784</v>
+        <v>2054.14604086474</v>
       </c>
       <c r="P6" t="n">
-        <v>-17373.57195276699</v>
+        <v>-17373.5719527671</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26796,7 +26796,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203979</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,13 +27030,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9801696040608</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>148.1739169047364</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>23.35921383941634</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>69.7661354533094</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8774149194517</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>217.0973701719827</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>286.3954173950167</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>200.954649897058</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>81.80067525430866</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>169.4235882994773</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>183.7183104822598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32251,7 +32251,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32321,16 +32321,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>45.87687150790077</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,13 +35893,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35969,16 +35969,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
